--- a/testpython/testdata/test.xlsx
+++ b/testpython/testdata/test.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>case_id</t>
   </si>
@@ -57,28 +57,31 @@
     <t>("","ez27Us6DpzGoPNkb3FH/Mw==","6666","$2y$10$reArgS92v9zKSj.Z77yls.nqw0mxi1gVyEVzu.eYv9vT6/2DS8Z9q","username")</t>
   </si>
   <si>
+    <t>{"code": 0, "msg": "账号解析失败"}</t>
+  </si>
+  <si>
+    <t>不输入密码</t>
+  </si>
+  <si>
+    <t>("J/fY3PE2HH0kvMZzbv5BLQ==","","6666","$2y$10$reArgS92v9zKSj.Z77yls.nqw0mxi1gVyEVzu.eYv9vT6/2DS8Z9q","username")</t>
+  </si>
+  <si>
     <t>{"code": 0, "msg": "密码解析失败"}</t>
   </si>
   <si>
-    <t>不输入密码</t>
-  </si>
-  <si>
-    <t>("J/fY3PE2HH0kvMZzbv5BLQ==","","6666","$2y$10$reArgS92v9zKSj.Z77yls.nqw0mxi1gVyEVzu.eYv9vT6/2DS8Z9q","username")</t>
-  </si>
-  <si>
     <t>输入错误的密码</t>
   </si>
   <si>
     <t>("J/fY3PE2HH0kvMZzbv5BLQ==","9i3jjLm3SxkpHakKWnTasg==","6666","$2y$10$reArgS92v9zKSj.Z77yls.nqw0mxi1gVyEVzu.eYv9vT6/2DS8Z9q","username")</t>
   </si>
   <si>
+    <t>{"code": 0, "msg": "账户密码错误"}</t>
+  </si>
+  <si>
     <t>输入错误的账号</t>
   </si>
   <si>
     <t>("9i3jjLm3SxkpHakKWnTasg==","ez27Us6DpzGoPNkb3FH/Mw==","6666","$2y$10$reArgS92v9zKSj.Z77yls.nqw0mxi1gVyEVzu.eYv9vT6/2DS8Z9q","username")</t>
-  </si>
-  <si>
-    <t>{"code": 0, "msg": "账户密码错误"}</t>
   </si>
   <si>
     <t>账号密码都输入错误</t>
@@ -1134,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1142,13 +1145,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1156,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1170,13 +1173,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1184,13 +1187,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1198,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1212,13 +1215,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1226,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1240,13 +1243,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1271,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
